--- a/data/pca/factorExposure/factorExposure_2018-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01184152302783777</v>
+        <v>0.008145647654539515</v>
       </c>
       <c r="C2">
-        <v>0.006041579962460353</v>
+        <v>0.02993128722651854</v>
       </c>
       <c r="D2">
-        <v>-0.02213266200598992</v>
+        <v>-0.02769219785996503</v>
       </c>
       <c r="E2">
-        <v>-0.05810387474827458</v>
+        <v>-0.02393891934617435</v>
       </c>
       <c r="F2">
-        <v>-0.03567186320028517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03452261415810623</v>
+      </c>
+      <c r="G2">
+        <v>-0.006865413095253711</v>
+      </c>
+      <c r="H2">
+        <v>-0.009128230911787417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06066355467581313</v>
+        <v>0.06081217747674853</v>
       </c>
       <c r="C3">
-        <v>-0.002847642915130687</v>
+        <v>0.08664007563357781</v>
       </c>
       <c r="D3">
-        <v>0.03110950092508234</v>
+        <v>-0.01316769664642278</v>
       </c>
       <c r="E3">
-        <v>-0.2341647007649841</v>
+        <v>-0.07241579123002641</v>
       </c>
       <c r="F3">
-        <v>-0.1764808326937624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08495656644132774</v>
+      </c>
+      <c r="G3">
+        <v>-0.06313432073481441</v>
+      </c>
+      <c r="H3">
+        <v>-0.01187132905634694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03525491776614524</v>
+        <v>0.0511332642328684</v>
       </c>
       <c r="C4">
-        <v>-0.01516136967827465</v>
+        <v>0.05721312409466797</v>
       </c>
       <c r="D4">
-        <v>-0.03037543539030919</v>
+        <v>-0.02100278533937868</v>
       </c>
       <c r="E4">
-        <v>-0.023607289368043</v>
+        <v>0.002406374548135933</v>
       </c>
       <c r="F4">
-        <v>-0.04860187068517432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01976982824167913</v>
+      </c>
+      <c r="G4">
+        <v>-0.0402913490573019</v>
+      </c>
+      <c r="H4">
+        <v>0.02152267076272669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06238509953035804</v>
+        <v>0.02949395654632649</v>
       </c>
       <c r="C6">
-        <v>-0.003452713187960439</v>
+        <v>0.05478288682635534</v>
       </c>
       <c r="D6">
-        <v>-0.0405744240107424</v>
+        <v>-0.01540701516878543</v>
       </c>
       <c r="E6">
-        <v>-0.01677594558239262</v>
+        <v>-0.0006724736313843684</v>
       </c>
       <c r="F6">
-        <v>-0.03245290103326572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01850185619768886</v>
+      </c>
+      <c r="G6">
+        <v>-0.01918456549244146</v>
+      </c>
+      <c r="H6">
+        <v>0.002766505326562964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02703329399194897</v>
+        <v>0.01389340784894193</v>
       </c>
       <c r="C7">
-        <v>-0.07001019684174951</v>
+        <v>0.03374923710803609</v>
       </c>
       <c r="D7">
-        <v>-0.001014813609730146</v>
+        <v>-0.01226310505720965</v>
       </c>
       <c r="E7">
-        <v>-0.008595087353707927</v>
+        <v>0.01736465632999866</v>
       </c>
       <c r="F7">
-        <v>-0.009736289014522788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.00998748006641082</v>
+      </c>
+      <c r="G7">
+        <v>-0.07257242463229355</v>
+      </c>
+      <c r="H7">
+        <v>-0.0187476333267913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.017228478574105</v>
+        <v>-0.004569288492269589</v>
       </c>
       <c r="C8">
-        <v>-0.01042884846180545</v>
+        <v>0.004594307243192073</v>
       </c>
       <c r="D8">
-        <v>-0.02346813759074558</v>
+        <v>-0.001960782300568791</v>
       </c>
       <c r="E8">
-        <v>-0.02102123918548671</v>
+        <v>-0.007314730102238019</v>
       </c>
       <c r="F8">
-        <v>-0.04742348871105583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01966190732918998</v>
+      </c>
+      <c r="G8">
+        <v>-0.02450826856530248</v>
+      </c>
+      <c r="H8">
+        <v>0.01650555037997789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02778372767638954</v>
+        <v>0.02509266486731851</v>
       </c>
       <c r="C9">
-        <v>-0.0121241842065999</v>
+        <v>0.03893163665354675</v>
       </c>
       <c r="D9">
-        <v>-0.02367633431399564</v>
+        <v>-0.01474009579845572</v>
       </c>
       <c r="E9">
-        <v>-0.04380103464876216</v>
+        <v>0.0006692408476909004</v>
       </c>
       <c r="F9">
-        <v>-0.03777518200583321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0222141486806164</v>
+      </c>
+      <c r="G9">
+        <v>-0.02885602419954363</v>
+      </c>
+      <c r="H9">
+        <v>-0.004711994981063338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05088248914811422</v>
+        <v>0.09564402318278792</v>
       </c>
       <c r="C10">
-        <v>0.01450453451635409</v>
+        <v>-0.1796838308873153</v>
       </c>
       <c r="D10">
-        <v>0.1675953919223168</v>
+        <v>0.02168553700953801</v>
       </c>
       <c r="E10">
-        <v>-0.04115680056868793</v>
+        <v>-0.01863166625847536</v>
       </c>
       <c r="F10">
-        <v>0.009539218621306921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01197214805828113</v>
+      </c>
+      <c r="G10">
+        <v>-0.02828612187049871</v>
+      </c>
+      <c r="H10">
+        <v>-0.03400643862745266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02829682194725022</v>
+        <v>0.03228202470104236</v>
       </c>
       <c r="C11">
-        <v>0.002900242023272805</v>
+        <v>0.05320448948265324</v>
       </c>
       <c r="D11">
-        <v>-0.04161402325516886</v>
+        <v>-0.0004728690633710333</v>
       </c>
       <c r="E11">
-        <v>-0.006162449361357986</v>
+        <v>0.007557688022115863</v>
       </c>
       <c r="F11">
-        <v>-0.01906818966386538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0274018687195751</v>
+      </c>
+      <c r="G11">
+        <v>-0.00932206258235709</v>
+      </c>
+      <c r="H11">
+        <v>0.00330469886222376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03631196356677271</v>
+        <v>0.03239091889299588</v>
       </c>
       <c r="C12">
-        <v>-0.00318975495558196</v>
+        <v>0.04669880467002158</v>
       </c>
       <c r="D12">
-        <v>-0.03915906749814521</v>
+        <v>-0.004753864837518646</v>
       </c>
       <c r="E12">
-        <v>0.01228052991708816</v>
+        <v>0.01329440879211646</v>
       </c>
       <c r="F12">
-        <v>-0.005188332731242565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.007657079842123791</v>
+      </c>
+      <c r="G12">
+        <v>-0.01582213590788796</v>
+      </c>
+      <c r="H12">
+        <v>0.0007789165419429804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01617652547377912</v>
+        <v>0.01018307330890233</v>
       </c>
       <c r="C13">
-        <v>0.002022309703668405</v>
+        <v>0.02695034931481656</v>
       </c>
       <c r="D13">
-        <v>-0.01471277788698066</v>
+        <v>-0.02341581631983491</v>
       </c>
       <c r="E13">
-        <v>-0.03800057203039537</v>
+        <v>-0.01585332093572583</v>
       </c>
       <c r="F13">
-        <v>-0.04743530708653587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03494380239033183</v>
+      </c>
+      <c r="G13">
+        <v>-0.02356809820475443</v>
+      </c>
+      <c r="H13">
+        <v>0.009258764713369196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01452566350895707</v>
+        <v>0.006041499353701695</v>
       </c>
       <c r="C14">
-        <v>-0.01420714052937839</v>
+        <v>0.02253742678145046</v>
       </c>
       <c r="D14">
-        <v>-0.008661529789031706</v>
+        <v>-0.00785304128473824</v>
       </c>
       <c r="E14">
-        <v>-0.01392890306431305</v>
+        <v>0.007658283970983377</v>
       </c>
       <c r="F14">
-        <v>-0.04601911057045482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.003499865101748319</v>
+      </c>
+      <c r="G14">
+        <v>-0.03416402473840504</v>
+      </c>
+      <c r="H14">
+        <v>0.01041468199275537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02635642677514869</v>
+        <v>0.02795145910404758</v>
       </c>
       <c r="C16">
-        <v>-0.003189638787875119</v>
+        <v>0.04057687448135377</v>
       </c>
       <c r="D16">
-        <v>-0.04142599802520062</v>
+        <v>-0.0001371530834343289</v>
       </c>
       <c r="E16">
-        <v>-0.007972412811170126</v>
+        <v>0.00494282974977542</v>
       </c>
       <c r="F16">
-        <v>-0.02132705719302393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01542075421993342</v>
+      </c>
+      <c r="G16">
+        <v>-0.01391461408144382</v>
+      </c>
+      <c r="H16">
+        <v>0.003954607380526908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02866490744584719</v>
+        <v>0.02537938837177285</v>
       </c>
       <c r="C19">
-        <v>-0.0006035995740630536</v>
+        <v>0.04863014333742482</v>
       </c>
       <c r="D19">
-        <v>-0.03254620234347148</v>
+        <v>-0.01378516719170455</v>
       </c>
       <c r="E19">
-        <v>-0.03684419034528338</v>
+        <v>-0.02875929704993258</v>
       </c>
       <c r="F19">
-        <v>-0.08035655475698325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0453456202147033</v>
+      </c>
+      <c r="G19">
+        <v>-0.03717310846899947</v>
+      </c>
+      <c r="H19">
+        <v>0.022458393468214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00169315093032037</v>
+        <v>0.007775938745951468</v>
       </c>
       <c r="C20">
-        <v>-0.003746446531235382</v>
+        <v>0.02740330512380462</v>
       </c>
       <c r="D20">
-        <v>-0.001380854788705948</v>
+        <v>-0.01206786205541379</v>
       </c>
       <c r="E20">
-        <v>-0.02791904638433451</v>
+        <v>-0.01588867795639332</v>
       </c>
       <c r="F20">
-        <v>-0.02890815957986536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01292847482667662</v>
+      </c>
+      <c r="G20">
+        <v>-0.02388567088732789</v>
+      </c>
+      <c r="H20">
+        <v>0.007228656553990227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03676895576268444</v>
+        <v>0.009085127753724616</v>
       </c>
       <c r="C21">
-        <v>-0.02074287909710655</v>
+        <v>0.03002736845243459</v>
       </c>
       <c r="D21">
-        <v>-0.01475865773330562</v>
+        <v>-0.01525281742159885</v>
       </c>
       <c r="E21">
-        <v>-0.01790332969876462</v>
+        <v>-0.02065670188506919</v>
       </c>
       <c r="F21">
-        <v>-0.03573639618861921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02517771063238542</v>
+      </c>
+      <c r="G21">
+        <v>-0.04566332168755745</v>
+      </c>
+      <c r="H21">
+        <v>0.001757592559370381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0245857839564999</v>
+        <v>0.02349714909335898</v>
       </c>
       <c r="C24">
-        <v>-0.0007518866514812809</v>
+        <v>0.04391483923168369</v>
       </c>
       <c r="D24">
-        <v>-0.03226118854745033</v>
+        <v>-0.005259681487844746</v>
       </c>
       <c r="E24">
-        <v>-0.005971164803576997</v>
+        <v>0.01034631715230191</v>
       </c>
       <c r="F24">
-        <v>-0.01718868850847508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02236800120338532</v>
+      </c>
+      <c r="G24">
+        <v>-0.01061530636066265</v>
+      </c>
+      <c r="H24">
+        <v>-0.002352651976723023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03750906269370948</v>
+        <v>0.04030624841514394</v>
       </c>
       <c r="C25">
-        <v>0.0009849430000205396</v>
+        <v>0.05230847704135495</v>
       </c>
       <c r="D25">
-        <v>-0.03158726408585422</v>
+        <v>-0.009204725000541846</v>
       </c>
       <c r="E25">
-        <v>-0.01988528002251471</v>
+        <v>0.0169356511194112</v>
       </c>
       <c r="F25">
-        <v>-0.02592205393283176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01904748405782886</v>
+      </c>
+      <c r="G25">
+        <v>-0.01868788119057522</v>
+      </c>
+      <c r="H25">
+        <v>0.005482664512182937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.002332743131458471</v>
+        <v>0.002036837972294845</v>
       </c>
       <c r="C26">
-        <v>-0.009609741070697245</v>
+        <v>0.002724018798509736</v>
       </c>
       <c r="D26">
-        <v>-0.006411651953932293</v>
+        <v>-0.0231722999872398</v>
       </c>
       <c r="E26">
-        <v>-0.03202044480918566</v>
+        <v>-0.002338775793406173</v>
       </c>
       <c r="F26">
-        <v>-0.01416727487587078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007591534776325891</v>
+      </c>
+      <c r="G26">
+        <v>-0.02002165395906241</v>
+      </c>
+      <c r="H26">
+        <v>0.001693211360836839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>2.524735441908102e-05</v>
+        <v>0.0003766635535089441</v>
       </c>
       <c r="C27">
-        <v>-0.0006507714301664052</v>
+        <v>-0.000852029089158853</v>
       </c>
       <c r="D27">
-        <v>0.004549166045450874</v>
+        <v>0.0005163615983616309</v>
       </c>
       <c r="E27">
-        <v>0.005656349753412878</v>
+        <v>0.0001299364610686809</v>
       </c>
       <c r="F27">
-        <v>-0.01368960551623688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0003732646480180817</v>
+      </c>
+      <c r="G27">
+        <v>-0.00299148110599736</v>
+      </c>
+      <c r="H27">
+        <v>0.006386895431692348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08363054060475246</v>
+        <v>0.1275505708761829</v>
       </c>
       <c r="C28">
-        <v>0.02241011593421263</v>
+        <v>-0.2174527468829196</v>
       </c>
       <c r="D28">
-        <v>0.2414241761612405</v>
+        <v>0.01400658796451535</v>
       </c>
       <c r="E28">
-        <v>-0.05150119655978633</v>
+        <v>-0.01133315872210333</v>
       </c>
       <c r="F28">
-        <v>0.02339684639684493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0129361141439227</v>
+      </c>
+      <c r="G28">
+        <v>-0.04356285676544181</v>
+      </c>
+      <c r="H28">
+        <v>-0.03277828433425246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01427398912799404</v>
+        <v>0.01040892594480183</v>
       </c>
       <c r="C29">
-        <v>-0.01081587848563922</v>
+        <v>0.01836615069290081</v>
       </c>
       <c r="D29">
-        <v>-0.008467926073736181</v>
+        <v>-0.006697500273413643</v>
       </c>
       <c r="E29">
-        <v>-0.01157306599422448</v>
+        <v>0.006371091864784876</v>
       </c>
       <c r="F29">
-        <v>-0.04953741566767229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.00121393987844692</v>
+      </c>
+      <c r="G29">
+        <v>-0.02920986172349861</v>
+      </c>
+      <c r="H29">
+        <v>0.01637867483598893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04224923299292069</v>
+        <v>0.03412503844105883</v>
       </c>
       <c r="C30">
-        <v>0.04855994503375623</v>
+        <v>0.07386214939771822</v>
       </c>
       <c r="D30">
-        <v>-0.06253602359641422</v>
+        <v>-0.02661404576628858</v>
       </c>
       <c r="E30">
-        <v>-0.04918944003270256</v>
+        <v>-0.01800210337704401</v>
       </c>
       <c r="F30">
-        <v>-0.0681000364090182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04912248624800229</v>
+      </c>
+      <c r="G30">
+        <v>0.008076866000600412</v>
+      </c>
+      <c r="H30">
+        <v>0.02595896736480405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04894578986027444</v>
+        <v>0.0403054810537621</v>
       </c>
       <c r="C31">
-        <v>-0.01016415306730339</v>
+        <v>0.02308112758551719</v>
       </c>
       <c r="D31">
-        <v>-0.01421311512240286</v>
+        <v>-0.001334382387156372</v>
       </c>
       <c r="E31">
-        <v>0.005240382242706816</v>
+        <v>0.0172334606841094</v>
       </c>
       <c r="F31">
-        <v>-0.03048664627764455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02814571817144928</v>
+      </c>
+      <c r="G31">
+        <v>-0.02326223805106021</v>
+      </c>
+      <c r="H31">
+        <v>0.003681411241461408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0003987099949491616</v>
+        <v>0.00160555108729292</v>
       </c>
       <c r="C32">
-        <v>-0.02940582778914397</v>
+        <v>0.02897655429962894</v>
       </c>
       <c r="D32">
-        <v>-0.02673099706918952</v>
+        <v>0.005642714736132396</v>
       </c>
       <c r="E32">
-        <v>-0.002983737169264446</v>
+        <v>-0.0115726132527316</v>
       </c>
       <c r="F32">
-        <v>-0.06267945916686281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07917502673526923</v>
+      </c>
+      <c r="G32">
+        <v>-0.05163532191644016</v>
+      </c>
+      <c r="H32">
+        <v>0.03726689824947083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03165642341380077</v>
+        <v>0.02574880685971525</v>
       </c>
       <c r="C33">
-        <v>0.02095083141009331</v>
+        <v>0.04832365732744846</v>
       </c>
       <c r="D33">
-        <v>-0.03123185170104412</v>
+        <v>-0.01312972263592349</v>
       </c>
       <c r="E33">
-        <v>-0.04057894611438925</v>
+        <v>-0.01317856846691086</v>
       </c>
       <c r="F33">
-        <v>-0.031091092224276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0262674910308931</v>
+      </c>
+      <c r="G33">
+        <v>-0.0117483773699413</v>
+      </c>
+      <c r="H33">
+        <v>-0.008764475741608012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.027264230799714</v>
+        <v>0.04148056304070769</v>
       </c>
       <c r="C34">
-        <v>-0.01091970822956635</v>
+        <v>0.05430415747212169</v>
       </c>
       <c r="D34">
-        <v>-0.04234375961592172</v>
+        <v>0.006854542134135807</v>
       </c>
       <c r="E34">
-        <v>-0.006572373910382513</v>
+        <v>0.01754334602611883</v>
       </c>
       <c r="F34">
-        <v>-0.02600397182693587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02455778152826138</v>
+      </c>
+      <c r="G34">
+        <v>-0.02296782823253637</v>
+      </c>
+      <c r="H34">
+        <v>0.001556776423312887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01145256168392212</v>
+        <v>0.01029764169225871</v>
       </c>
       <c r="C36">
-        <v>-0.005266068834034847</v>
+        <v>0.0007899074992963176</v>
       </c>
       <c r="D36">
-        <v>0.0006220996794914641</v>
+        <v>-0.01002997618257497</v>
       </c>
       <c r="E36">
-        <v>-0.01049285925133791</v>
+        <v>0.00240277332509429</v>
       </c>
       <c r="F36">
-        <v>-0.02271620897449789</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001189213593853237</v>
+      </c>
+      <c r="G36">
+        <v>-0.01492856923008717</v>
+      </c>
+      <c r="H36">
+        <v>-0.0004109635652609183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01910306681445796</v>
+        <v>0.02674990447188403</v>
       </c>
       <c r="C38">
-        <v>0.003645243286803414</v>
+        <v>0.01759148082601886</v>
       </c>
       <c r="D38">
-        <v>-0.005244086489229982</v>
+        <v>0.008693005616807598</v>
       </c>
       <c r="E38">
-        <v>-0.04006364672030995</v>
+        <v>0.003147870640842734</v>
       </c>
       <c r="F38">
-        <v>-0.03463784343114064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01091848821414044</v>
+      </c>
+      <c r="G38">
+        <v>-0.01924677731713629</v>
+      </c>
+      <c r="H38">
+        <v>0.001811166801859695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01916084681689923</v>
+        <v>0.02286908814039795</v>
       </c>
       <c r="C39">
-        <v>-0.009299201225400722</v>
+        <v>0.08265569214953887</v>
       </c>
       <c r="D39">
-        <v>-0.06615877773317269</v>
+        <v>-0.01135113236066839</v>
       </c>
       <c r="E39">
-        <v>-0.02895998332517617</v>
+        <v>-0.003829786939985827</v>
       </c>
       <c r="F39">
-        <v>-0.04859921385329749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04621849222763103</v>
+      </c>
+      <c r="G39">
+        <v>-0.01300965697697523</v>
+      </c>
+      <c r="H39">
+        <v>-0.003401785737255751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02669705334920945</v>
+        <v>0.01816658344624328</v>
       </c>
       <c r="C40">
-        <v>0.0009613567181772447</v>
+        <v>0.02585547409061954</v>
       </c>
       <c r="D40">
-        <v>-0.04144485197092139</v>
+        <v>-0.01183097287953922</v>
       </c>
       <c r="E40">
-        <v>-0.02312399359682087</v>
+        <v>-0.00699015653391069</v>
       </c>
       <c r="F40">
-        <v>-0.008841093548842022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02734748957188547</v>
+      </c>
+      <c r="G40">
+        <v>-0.01221964834057246</v>
+      </c>
+      <c r="H40">
+        <v>-0.006549436519394934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009670813085692389</v>
+        <v>0.01176192224751017</v>
       </c>
       <c r="C41">
-        <v>0.001700330723267627</v>
+        <v>-0.006879698597443083</v>
       </c>
       <c r="D41">
-        <v>0.0119798295520329</v>
+        <v>-0.002344883895335614</v>
       </c>
       <c r="E41">
-        <v>-0.008127030462909393</v>
+        <v>0.008622716404066918</v>
       </c>
       <c r="F41">
-        <v>-0.004632928760573644</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0003274128870978462</v>
+      </c>
+      <c r="G41">
+        <v>-0.007260939619688307</v>
+      </c>
+      <c r="H41">
+        <v>-0.0009949141523327779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2051723016589453</v>
+        <v>0.0445567917955041</v>
       </c>
       <c r="C42">
-        <v>0.1481858675575772</v>
+        <v>0.08354630243105132</v>
       </c>
       <c r="D42">
-        <v>-0.1641921209550641</v>
+        <v>-0.1152085152350732</v>
       </c>
       <c r="E42">
-        <v>-0.4087607965816294</v>
+        <v>-0.09641602667878357</v>
       </c>
       <c r="F42">
-        <v>0.8052696361601267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1838097147698682</v>
+      </c>
+      <c r="G42">
+        <v>0.3930095246664591</v>
+      </c>
+      <c r="H42">
+        <v>-0.861523074781731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01465029265198916</v>
+        <v>0.02574828419146817</v>
       </c>
       <c r="C43">
-        <v>0.004583203776318142</v>
+        <v>0.001559302053246689</v>
       </c>
       <c r="D43">
-        <v>0.0112867851170306</v>
+        <v>-0.002027651136917775</v>
       </c>
       <c r="E43">
-        <v>-0.01207402208370916</v>
+        <v>0.006418131986600789</v>
       </c>
       <c r="F43">
-        <v>-0.01199843683186204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003837181466863244</v>
+      </c>
+      <c r="G43">
+        <v>-0.009359641812349381</v>
+      </c>
+      <c r="H43">
+        <v>0.0004954654737857645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007299781798484371</v>
+        <v>0.01241447659108659</v>
       </c>
       <c r="C44">
-        <v>-0.01165573368736018</v>
+        <v>0.04702924825381924</v>
       </c>
       <c r="D44">
-        <v>-0.01685607483064923</v>
+        <v>-0.006357375882132988</v>
       </c>
       <c r="E44">
-        <v>-0.05777522963559626</v>
+        <v>-0.01299273623486216</v>
       </c>
       <c r="F44">
-        <v>-0.05038687541149082</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02909262057243815</v>
+      </c>
+      <c r="G44">
+        <v>-0.02761185898689605</v>
+      </c>
+      <c r="H44">
+        <v>-0.01439374734810815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01343262114314985</v>
+        <v>0.001094717371841792</v>
       </c>
       <c r="C46">
-        <v>-0.00287484879660468</v>
+        <v>0.01366020425493387</v>
       </c>
       <c r="D46">
-        <v>-0.03560396702621218</v>
+        <v>-0.01092746608254946</v>
       </c>
       <c r="E46">
-        <v>-0.02800141661578533</v>
+        <v>0.007210999462897489</v>
       </c>
       <c r="F46">
-        <v>-0.0703629166292938</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006950367649792347</v>
+      </c>
+      <c r="G46">
+        <v>-0.02080587640062599</v>
+      </c>
+      <c r="H46">
+        <v>0.01612522670759664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07466411611317654</v>
+        <v>0.06667504795050838</v>
       </c>
       <c r="C47">
-        <v>0.006281099794607332</v>
+        <v>0.05545325082104093</v>
       </c>
       <c r="D47">
-        <v>-0.01787304016382628</v>
+        <v>0.006314574754243987</v>
       </c>
       <c r="E47">
-        <v>0.03315558940174501</v>
+        <v>0.01939657301095689</v>
       </c>
       <c r="F47">
-        <v>-0.005694993877244448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05857457979715635</v>
+      </c>
+      <c r="G47">
+        <v>-0.01641494199759661</v>
+      </c>
+      <c r="H47">
+        <v>0.008318224595738706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02174644177053704</v>
+        <v>0.01395198483918588</v>
       </c>
       <c r="C48">
-        <v>-0.00380380092445479</v>
+        <v>0.007479748344939485</v>
       </c>
       <c r="D48">
-        <v>-0.006412181758842109</v>
+        <v>-0.0001673417009723259</v>
       </c>
       <c r="E48">
-        <v>-0.01242858038829574</v>
+        <v>0.008158875357322584</v>
       </c>
       <c r="F48">
-        <v>-0.02108426909091284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01413141715123445</v>
+      </c>
+      <c r="G48">
+        <v>-0.01699713498674537</v>
+      </c>
+      <c r="H48">
+        <v>0.002237069582268973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08099648739864029</v>
+        <v>0.0723124231630119</v>
       </c>
       <c r="C50">
-        <v>-0.02240880812314365</v>
+        <v>0.05848201918441605</v>
       </c>
       <c r="D50">
-        <v>-0.03834518833839447</v>
+        <v>0.005100791155492889</v>
       </c>
       <c r="E50">
-        <v>0.002294359954630995</v>
+        <v>0.01905138399250959</v>
       </c>
       <c r="F50">
-        <v>-0.02103026698061423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0550331413088426</v>
+      </c>
+      <c r="G50">
+        <v>-0.0432704036174975</v>
+      </c>
+      <c r="H50">
+        <v>0.0005171392123057133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009561347020977632</v>
+        <v>0.01215248875171136</v>
       </c>
       <c r="C51">
-        <v>-0.006759688758237797</v>
+        <v>0.02331040535790382</v>
       </c>
       <c r="D51">
-        <v>0.01673335873886569</v>
+        <v>-0.008161237836166893</v>
       </c>
       <c r="E51">
-        <v>-0.05635922144837629</v>
+        <v>-0.001545120150817837</v>
       </c>
       <c r="F51">
-        <v>-0.05433404688457246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03725775832653253</v>
+      </c>
+      <c r="G51">
+        <v>-0.03270307394128602</v>
+      </c>
+      <c r="H51">
+        <v>-0.007628500060965828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1057432705554971</v>
+        <v>0.09114745777622418</v>
       </c>
       <c r="C53">
-        <v>-0.005421660831409201</v>
+        <v>0.07995103884392993</v>
       </c>
       <c r="D53">
-        <v>-0.04778530112650036</v>
+        <v>0.006569001840224713</v>
       </c>
       <c r="E53">
-        <v>0.0550095165467339</v>
+        <v>0.04189761005327398</v>
       </c>
       <c r="F53">
-        <v>-0.003633916328845351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06495805762778543</v>
+      </c>
+      <c r="G53">
+        <v>-0.01759541491628861</v>
+      </c>
+      <c r="H53">
+        <v>-0.002077471952702627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02584962937514113</v>
+        <v>0.02755432914238357</v>
       </c>
       <c r="C54">
-        <v>-0.007177254932285067</v>
+        <v>0.0004398417902123012</v>
       </c>
       <c r="D54">
-        <v>0.001046509990616272</v>
+        <v>0.00562026800122597</v>
       </c>
       <c r="E54">
-        <v>0.00610909610815726</v>
+        <v>0.002231829007993344</v>
       </c>
       <c r="F54">
-        <v>-0.03893141620976871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001704821690402645</v>
+      </c>
+      <c r="G54">
+        <v>-0.02658842476720931</v>
+      </c>
+      <c r="H54">
+        <v>0.01184455016624473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07864066159407426</v>
+        <v>0.06716162529464656</v>
       </c>
       <c r="C55">
-        <v>0.0001198417329746803</v>
+        <v>0.06833172608847338</v>
       </c>
       <c r="D55">
-        <v>-0.06222430929753167</v>
+        <v>0.005574488102712534</v>
       </c>
       <c r="E55">
-        <v>0.03460140692477699</v>
+        <v>0.03138634835404475</v>
       </c>
       <c r="F55">
-        <v>-0.001572602047465959</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05985303869823667</v>
+      </c>
+      <c r="G55">
+        <v>-0.007643558426026926</v>
+      </c>
+      <c r="H55">
+        <v>0.004210070118821396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1465741987458372</v>
+        <v>0.1362985327948882</v>
       </c>
       <c r="C56">
-        <v>0.004449536447888032</v>
+        <v>0.1084939621610388</v>
       </c>
       <c r="D56">
-        <v>-0.06833326519778615</v>
+        <v>0.01491072197580695</v>
       </c>
       <c r="E56">
-        <v>0.08455804722748188</v>
+        <v>0.04347453902290231</v>
       </c>
       <c r="F56">
-        <v>0.01928365585794801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1040652270334029</v>
+      </c>
+      <c r="G56">
+        <v>0.003537703258198046</v>
+      </c>
+      <c r="H56">
+        <v>0.01143489718023654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03555068781313256</v>
+        <v>0.01478415432255879</v>
       </c>
       <c r="C57">
-        <v>0.00966993231929773</v>
+        <v>0.01318587685025396</v>
       </c>
       <c r="D57">
-        <v>-0.01325041210055611</v>
+        <v>-0.02383244697493722</v>
       </c>
       <c r="E57">
-        <v>-0.05059430605241871</v>
+        <v>-0.03270301062044534</v>
       </c>
       <c r="F57">
-        <v>-0.01666656104444139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02218782431302622</v>
+      </c>
+      <c r="G57">
+        <v>-0.02339285325755622</v>
+      </c>
+      <c r="H57">
+        <v>-0.004557479466862448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1799653254490438</v>
+        <v>0.06791787020803776</v>
       </c>
       <c r="C58">
-        <v>0.132640906435593</v>
+        <v>0.09338929594900384</v>
       </c>
       <c r="D58">
-        <v>-0.1555529770645213</v>
+        <v>-0.02208046440764897</v>
       </c>
       <c r="E58">
-        <v>-0.5625312995637241</v>
+        <v>-0.9485963915764967</v>
       </c>
       <c r="F58">
-        <v>-0.3873309634533369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1914450925565812</v>
+      </c>
+      <c r="G58">
+        <v>-0.0931211628959049</v>
+      </c>
+      <c r="H58">
+        <v>0.1122163846440556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08423778897141181</v>
+        <v>0.1623775816439068</v>
       </c>
       <c r="C59">
-        <v>0.04193806608138537</v>
+        <v>-0.2082654044211275</v>
       </c>
       <c r="D59">
-        <v>0.2003592027148444</v>
+        <v>0.02164794662297247</v>
       </c>
       <c r="E59">
-        <v>-0.05771570813677528</v>
+        <v>-0.01612836408326966</v>
       </c>
       <c r="F59">
-        <v>-0.02161159342316992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01262806928079754</v>
+      </c>
+      <c r="G59">
+        <v>-0.02071987062283714</v>
+      </c>
+      <c r="H59">
+        <v>-0.007761618905671818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.193862106313246</v>
+        <v>0.2941270506690328</v>
       </c>
       <c r="C60">
-        <v>0.04776881998357625</v>
+        <v>0.08836191966919482</v>
       </c>
       <c r="D60">
-        <v>0.02385462723189133</v>
+        <v>-0.0009746086959041887</v>
       </c>
       <c r="E60">
-        <v>-0.1265861699543539</v>
+        <v>-0.005380019851578828</v>
       </c>
       <c r="F60">
-        <v>-0.04431323063210846</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3826590225974223</v>
+      </c>
+      <c r="G60">
+        <v>0.05441716996458755</v>
+      </c>
+      <c r="H60">
+        <v>0.006818972312076709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03013817951874043</v>
+        <v>0.02708895535784769</v>
       </c>
       <c r="C61">
-        <v>-0.003470840045510945</v>
+        <v>0.06496438983624528</v>
       </c>
       <c r="D61">
-        <v>-0.05251250808165515</v>
+        <v>-0.004390106523612964</v>
       </c>
       <c r="E61">
-        <v>-0.01494154393021063</v>
+        <v>0.001490382627757289</v>
       </c>
       <c r="F61">
-        <v>-0.03057514685782034</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03138590131124057</v>
+      </c>
+      <c r="G61">
+        <v>-0.0163396540780334</v>
+      </c>
+      <c r="H61">
+        <v>0.005832823785464903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01554703424783963</v>
+        <v>0.01247704235743877</v>
       </c>
       <c r="C63">
-        <v>-0.006753068594310745</v>
+        <v>0.02945539141473774</v>
       </c>
       <c r="D63">
-        <v>-0.02241855006206458</v>
+        <v>-0.007206042167941761</v>
       </c>
       <c r="E63">
-        <v>0.001110596498760558</v>
+        <v>0.01594833255093174</v>
       </c>
       <c r="F63">
-        <v>-0.01801108158485001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.00317275122085794</v>
+      </c>
+      <c r="G63">
+        <v>-0.02242721246099117</v>
+      </c>
+      <c r="H63">
+        <v>0.00935918340898125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04785743766822263</v>
+        <v>0.04502332154444578</v>
       </c>
       <c r="C64">
-        <v>-0.0008946764378049799</v>
+        <v>0.03716624301766211</v>
       </c>
       <c r="D64">
-        <v>-0.02978190122666167</v>
+        <v>-0.003295773873365558</v>
       </c>
       <c r="E64">
-        <v>-0.007281664161635166</v>
+        <v>0.01760361664823482</v>
       </c>
       <c r="F64">
-        <v>-0.02440864739021066</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01635400046521505</v>
+      </c>
+      <c r="G64">
+        <v>-0.007941216013665334</v>
+      </c>
+      <c r="H64">
+        <v>-0.02000496372606521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06939768184486729</v>
+        <v>0.07578491418583674</v>
       </c>
       <c r="C65">
-        <v>-0.003504552572759233</v>
+        <v>0.07464075906991166</v>
       </c>
       <c r="D65">
-        <v>-0.04298676370589473</v>
+        <v>-0.01415246928210739</v>
       </c>
       <c r="E65">
-        <v>-0.01104719581722254</v>
+        <v>0.004651751766388921</v>
       </c>
       <c r="F65">
-        <v>-0.03006858839150983</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04521834683540751</v>
+      </c>
+      <c r="G65">
+        <v>-0.01143541016562409</v>
+      </c>
+      <c r="H65">
+        <v>0.0109797676976049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04377955465495216</v>
+        <v>0.04344551693018557</v>
       </c>
       <c r="C66">
-        <v>0.008954291507136154</v>
+        <v>0.121347878738889</v>
       </c>
       <c r="D66">
-        <v>-0.07597663662548949</v>
+        <v>-0.01045614218685882</v>
       </c>
       <c r="E66">
-        <v>-0.001097839042477065</v>
+        <v>-0.004249673781047472</v>
       </c>
       <c r="F66">
-        <v>-0.07251497677342636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05535350695418943</v>
+      </c>
+      <c r="G66">
+        <v>-0.00899228059267549</v>
+      </c>
+      <c r="H66">
+        <v>0.02385391099561483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03641458627863901</v>
+        <v>0.05222702852032542</v>
       </c>
       <c r="C67">
-        <v>0.008386719861541374</v>
+        <v>0.02404710555957752</v>
       </c>
       <c r="D67">
-        <v>5.29778478858607e-05</v>
+        <v>0.007536782853782571</v>
       </c>
       <c r="E67">
-        <v>-0.01954708392790954</v>
+        <v>0.008517968250156634</v>
       </c>
       <c r="F67">
-        <v>-0.02850450107288625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.009155682366420554</v>
+      </c>
+      <c r="G67">
+        <v>-0.01944584985604578</v>
+      </c>
+      <c r="H67">
+        <v>0.008056200997270196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07827810519076746</v>
+        <v>0.1440508014200969</v>
       </c>
       <c r="C68">
-        <v>0.04057572803545289</v>
+        <v>-0.2499498920600574</v>
       </c>
       <c r="D68">
-        <v>0.2224521539598922</v>
+        <v>0.003159537668160587</v>
       </c>
       <c r="E68">
-        <v>-0.03267459548362138</v>
+        <v>-0.01658713966747341</v>
       </c>
       <c r="F68">
-        <v>0.007974792202975327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02431616577230342</v>
+      </c>
+      <c r="G68">
+        <v>-0.01514140232695735</v>
+      </c>
+      <c r="H68">
+        <v>-0.0208760655502785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05669411489600647</v>
+        <v>0.06937906112290192</v>
       </c>
       <c r="C69">
-        <v>0.004670850443937907</v>
+        <v>0.05312167711232501</v>
       </c>
       <c r="D69">
-        <v>-0.0292908934174631</v>
+        <v>0.01093199120005003</v>
       </c>
       <c r="E69">
-        <v>0.02513064168115727</v>
+        <v>0.0341477737610446</v>
       </c>
       <c r="F69">
-        <v>-0.02190033953685184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03257246637149013</v>
+      </c>
+      <c r="G69">
+        <v>-0.01391490565731979</v>
+      </c>
+      <c r="H69">
+        <v>0.01700369943790409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07084585361413891</v>
+        <v>0.1375493715368471</v>
       </c>
       <c r="C71">
-        <v>0.02674758383256106</v>
+        <v>-0.2129534916371629</v>
       </c>
       <c r="D71">
-        <v>0.2181446946726379</v>
+        <v>0.01070372062201751</v>
       </c>
       <c r="E71">
-        <v>-0.06275712812992219</v>
+        <v>-0.02504753927855617</v>
       </c>
       <c r="F71">
-        <v>0.04104552102105734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02765758770158368</v>
+      </c>
+      <c r="G71">
+        <v>-0.02621969630862242</v>
+      </c>
+      <c r="H71">
+        <v>-0.04107375692819538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1231729434600129</v>
+        <v>0.07891299940290689</v>
       </c>
       <c r="C72">
-        <v>0.004115002028899122</v>
+        <v>0.0858204489821347</v>
       </c>
       <c r="D72">
-        <v>-0.1111246541392857</v>
+        <v>0.01085797355646229</v>
       </c>
       <c r="E72">
-        <v>-0.03331016031097752</v>
+        <v>0.01966962876476342</v>
       </c>
       <c r="F72">
-        <v>-0.1338295535157267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.042282018784568</v>
+      </c>
+      <c r="G72">
+        <v>-0.002084317778840705</v>
+      </c>
+      <c r="H72">
+        <v>0.02865611150260186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2390393498536618</v>
+        <v>0.3867734501469856</v>
       </c>
       <c r="C73">
-        <v>0.1080134898988814</v>
+        <v>0.129222089354556</v>
       </c>
       <c r="D73">
-        <v>-0.002988235179383362</v>
+        <v>-0.007960791015089612</v>
       </c>
       <c r="E73">
-        <v>-0.1935580466994102</v>
+        <v>-0.06433763584303197</v>
       </c>
       <c r="F73">
-        <v>-0.0315318628406498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5377049421643038</v>
+      </c>
+      <c r="G73">
+        <v>0.09958246389102722</v>
+      </c>
+      <c r="H73">
+        <v>-0.05569803536088869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1359832026046202</v>
+        <v>0.1105492169883781</v>
       </c>
       <c r="C74">
-        <v>0.0108925608690984</v>
+        <v>0.1175989044616842</v>
       </c>
       <c r="D74">
-        <v>-0.06892756459319595</v>
+        <v>0.01155337320755162</v>
       </c>
       <c r="E74">
-        <v>0.08305358441754716</v>
+        <v>0.04224529635572487</v>
       </c>
       <c r="F74">
-        <v>0.003180842223494379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07635554396421852</v>
+      </c>
+      <c r="G74">
+        <v>-0.01208960038329623</v>
+      </c>
+      <c r="H74">
+        <v>0.004172963828135133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2732057435206116</v>
+        <v>0.2467628970336472</v>
       </c>
       <c r="C75">
-        <v>0.03114405979956193</v>
+        <v>0.1679955367387535</v>
       </c>
       <c r="D75">
-        <v>-0.09787314907270958</v>
+        <v>0.03145627486889348</v>
       </c>
       <c r="E75">
-        <v>0.1600815038095154</v>
+        <v>0.06024131274327382</v>
       </c>
       <c r="F75">
-        <v>-0.01524716514414441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2121547330617026</v>
+      </c>
+      <c r="G75">
+        <v>0.02119135940642868</v>
+      </c>
+      <c r="H75">
+        <v>0.03374566999321961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2700538420298244</v>
+        <v>0.1505244562974704</v>
       </c>
       <c r="C76">
-        <v>0.01027447480035317</v>
+        <v>0.136021319615117</v>
       </c>
       <c r="D76">
-        <v>-0.1098315871925923</v>
+        <v>0.02459477371973187</v>
       </c>
       <c r="E76">
-        <v>0.2155759128308223</v>
+        <v>0.06842953422502915</v>
       </c>
       <c r="F76">
-        <v>0.02439678389116672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1535113954118109</v>
+      </c>
+      <c r="G76">
+        <v>-0.004926703513803555</v>
+      </c>
+      <c r="H76">
+        <v>0.00995619749213153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07218269451319911</v>
+        <v>0.04953310202046061</v>
       </c>
       <c r="C77">
-        <v>0.01138925503783617</v>
+        <v>0.06419198041664337</v>
       </c>
       <c r="D77">
-        <v>-0.06941358446037497</v>
+        <v>-0.01326846195725175</v>
       </c>
       <c r="E77">
-        <v>-0.1085942835292518</v>
+        <v>-0.03513678241559409</v>
       </c>
       <c r="F77">
-        <v>0.01811644881269134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0009489003478210389</v>
+      </c>
+      <c r="G77">
+        <v>-0.01966335297523281</v>
+      </c>
+      <c r="H77">
+        <v>-0.02939271691701118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03183391086366955</v>
+        <v>0.04005144937302149</v>
       </c>
       <c r="C78">
-        <v>-0.007149393531449827</v>
+        <v>0.05513144261818746</v>
       </c>
       <c r="D78">
-        <v>-0.05001268380606446</v>
+        <v>-0.004755741185112751</v>
       </c>
       <c r="E78">
-        <v>-0.05035323523651083</v>
+        <v>-0.0146223498943232</v>
       </c>
       <c r="F78">
-        <v>-0.05567987736575934</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04852576148351186</v>
+      </c>
+      <c r="G78">
+        <v>-0.02294083658166435</v>
+      </c>
+      <c r="H78">
+        <v>0.004631912854059095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2423032507274396</v>
+        <v>0.06365151687676115</v>
       </c>
       <c r="C80">
-        <v>-0.9384787110692767</v>
+        <v>0.08917786398651741</v>
       </c>
       <c r="D80">
-        <v>0.0975138401153292</v>
+        <v>-0.01201952869198697</v>
       </c>
       <c r="E80">
-        <v>-0.1367279061664391</v>
+        <v>0.07129029536773521</v>
       </c>
       <c r="F80">
-        <v>0.06136097707729424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02101381254640186</v>
+      </c>
+      <c r="G80">
+        <v>-0.8709721707806368</v>
+      </c>
+      <c r="H80">
+        <v>-0.3879041491623667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2151805095132326</v>
+        <v>0.1502365648353646</v>
       </c>
       <c r="C81">
-        <v>0.01502252508318705</v>
+        <v>0.1028724993718648</v>
       </c>
       <c r="D81">
-        <v>-0.06703089809464002</v>
+        <v>0.01925685257238721</v>
       </c>
       <c r="E81">
-        <v>0.1323939720785286</v>
+        <v>0.04372035864332875</v>
       </c>
       <c r="F81">
-        <v>-0.04733024044009685</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1433998407963308</v>
+      </c>
+      <c r="G81">
+        <v>-0.01069364652847996</v>
+      </c>
+      <c r="H81">
+        <v>0.01769728437903914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03403184776659954</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02362335105800601</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00268994862800642</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02314227342385034</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002390380422051226</v>
+      </c>
+      <c r="G82">
+        <v>-0.003434396219694106</v>
+      </c>
+      <c r="H82">
+        <v>0.01517609540675056</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03450455615961846</v>
+        <v>0.0260911058800559</v>
       </c>
       <c r="C83">
-        <v>0.007368392228707584</v>
+        <v>0.017698842886413</v>
       </c>
       <c r="D83">
-        <v>-0.00205574533451328</v>
+        <v>-0.004216900571246673</v>
       </c>
       <c r="E83">
-        <v>-0.03502203972079401</v>
+        <v>-0.02006473970848186</v>
       </c>
       <c r="F83">
-        <v>-0.03978423589037333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02555736840094051</v>
+      </c>
+      <c r="G83">
+        <v>-0.02648844033734166</v>
+      </c>
+      <c r="H83">
+        <v>0.00856896696015183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2574921780071769</v>
+        <v>0.2366181161071</v>
       </c>
       <c r="C85">
-        <v>0.03911222948063801</v>
+        <v>0.1862200223948609</v>
       </c>
       <c r="D85">
-        <v>-0.1123315753408916</v>
+        <v>0.02038305899444617</v>
       </c>
       <c r="E85">
-        <v>0.1911097502176399</v>
+        <v>0.09941281890596138</v>
       </c>
       <c r="F85">
-        <v>-0.006292376702915115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2037697402349047</v>
+      </c>
+      <c r="G85">
+        <v>0.06159313438404089</v>
+      </c>
+      <c r="H85">
+        <v>0.05267149054747761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008200192855319722</v>
+        <v>0.00541717825654005</v>
       </c>
       <c r="C86">
-        <v>-0.00915107471260795</v>
+        <v>0.02639778189197665</v>
       </c>
       <c r="D86">
-        <v>-0.03654587289100536</v>
+        <v>-0.009498183321446956</v>
       </c>
       <c r="E86">
-        <v>-0.04543808071522736</v>
+        <v>-0.01194080598027717</v>
       </c>
       <c r="F86">
-        <v>-0.05405840599088822</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02573915208470448</v>
+      </c>
+      <c r="G86">
+        <v>-0.04079171938223573</v>
+      </c>
+      <c r="H86">
+        <v>-0.03001533248978074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02721702984937546</v>
+        <v>0.01300215810000147</v>
       </c>
       <c r="C87">
-        <v>-0.006595462698777576</v>
+        <v>0.02449049976263406</v>
       </c>
       <c r="D87">
-        <v>-0.03058230659203975</v>
+        <v>-0.01076656678697539</v>
       </c>
       <c r="E87">
-        <v>-0.08940299931572936</v>
+        <v>-0.07257538130014334</v>
       </c>
       <c r="F87">
-        <v>-0.06664012923011974</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06482405609216203</v>
+      </c>
+      <c r="G87">
+        <v>-0.03355071769307913</v>
+      </c>
+      <c r="H87">
+        <v>-0.01342233763176741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04278558473636186</v>
+        <v>0.07725523900555702</v>
       </c>
       <c r="C88">
-        <v>0.008631742188395422</v>
+        <v>0.0424138923098415</v>
       </c>
       <c r="D88">
-        <v>0.004777100144648219</v>
+        <v>-0.01874998363850216</v>
       </c>
       <c r="E88">
-        <v>0.008669823873787305</v>
+        <v>0.01929536292907277</v>
       </c>
       <c r="F88">
-        <v>-0.0002994886783595182</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.008833924296520525</v>
+      </c>
+      <c r="G88">
+        <v>-0.01836123628263225</v>
+      </c>
+      <c r="H88">
+        <v>0.02606507785365225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1396412892185487</v>
+        <v>0.2403860937268279</v>
       </c>
       <c r="C89">
-        <v>0.07968153630095555</v>
+        <v>-0.3645585307419195</v>
       </c>
       <c r="D89">
-        <v>0.3797479844745847</v>
+        <v>0.01744484588924598</v>
       </c>
       <c r="E89">
-        <v>-0.01112291121263727</v>
+        <v>0.003167777779708207</v>
       </c>
       <c r="F89">
-        <v>-0.03537939184494579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02743933843070765</v>
+      </c>
+      <c r="G89">
+        <v>-0.01897807884445869</v>
+      </c>
+      <c r="H89">
+        <v>-0.0001077310673913626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07488725108848646</v>
+        <v>0.1963389782807205</v>
       </c>
       <c r="C90">
-        <v>0.07091458111896448</v>
+        <v>-0.3299592118686459</v>
       </c>
       <c r="D90">
-        <v>0.3441619702815654</v>
+        <v>0.01794396458481673</v>
       </c>
       <c r="E90">
-        <v>0.01585848813458799</v>
+        <v>-0.005980187221428057</v>
       </c>
       <c r="F90">
-        <v>0.01713071478659143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04941430242395198</v>
+      </c>
+      <c r="G90">
+        <v>0.002157038490375946</v>
+      </c>
+      <c r="H90">
+        <v>-0.003446775293305769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2933303506357955</v>
+        <v>0.2086293982153684</v>
       </c>
       <c r="C91">
-        <v>0.03761943352073416</v>
+        <v>0.1362746981108896</v>
       </c>
       <c r="D91">
-        <v>-0.130848557247543</v>
+        <v>0.02789349113650017</v>
       </c>
       <c r="E91">
-        <v>0.2226781817217623</v>
+        <v>0.08057911495689461</v>
       </c>
       <c r="F91">
-        <v>0.0729792835532901</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1999463233074155</v>
+      </c>
+      <c r="G91">
+        <v>0.01453143242758407</v>
+      </c>
+      <c r="H91">
+        <v>0.01492542927495595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2134690606316686</v>
+        <v>0.2272564448530295</v>
       </c>
       <c r="C92">
-        <v>0.08617265839661875</v>
+        <v>-0.255714272304562</v>
       </c>
       <c r="D92">
-        <v>0.3829803018880936</v>
+        <v>0.05999616141272523</v>
       </c>
       <c r="E92">
-        <v>0.1002976079786157</v>
+        <v>-0.00946915818879452</v>
       </c>
       <c r="F92">
-        <v>-0.06548545342720564</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1418971889642838</v>
+      </c>
+      <c r="G92">
+        <v>-0.05668697966672261</v>
+      </c>
+      <c r="H92">
+        <v>0.01999600934026797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1263629640407742</v>
+        <v>0.2266469257106415</v>
       </c>
       <c r="C93">
-        <v>0.09941854999375069</v>
+        <v>-0.32335791885684</v>
       </c>
       <c r="D93">
-        <v>0.3944842618260942</v>
+        <v>0.02473232936833385</v>
       </c>
       <c r="E93">
-        <v>-0.03064545307577439</v>
+        <v>-0.02076624329014982</v>
       </c>
       <c r="F93">
-        <v>0.07435681286583568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02069913928956896</v>
+      </c>
+      <c r="G93">
+        <v>0.01293772262715347</v>
+      </c>
+      <c r="H93">
+        <v>-0.04069609227926804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3307099460156238</v>
+        <v>0.2745600140103124</v>
       </c>
       <c r="C94">
-        <v>0.07418582347495384</v>
+        <v>0.1660627946710289</v>
       </c>
       <c r="D94">
-        <v>-0.08328150630475177</v>
+        <v>0.01698124236335058</v>
       </c>
       <c r="E94">
-        <v>0.2324527998480261</v>
+        <v>0.1019079884534069</v>
       </c>
       <c r="F94">
-        <v>-0.0725665883787952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3516608136545578</v>
+      </c>
+      <c r="G94">
+        <v>0.08027916743757363</v>
+      </c>
+      <c r="H94">
+        <v>0.2305834246739087</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06478307218994449</v>
+        <v>0.07112411624537424</v>
       </c>
       <c r="C95">
-        <v>0.0732023221690513</v>
+        <v>0.09882482152906771</v>
       </c>
       <c r="D95">
-        <v>-0.03626065146854617</v>
+        <v>0.007272711059648267</v>
       </c>
       <c r="E95">
-        <v>0.02367539210188374</v>
+        <v>-0.06889518297542967</v>
       </c>
       <c r="F95">
-        <v>-0.06922540348619753</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1476543398586542</v>
+      </c>
+      <c r="G95">
+        <v>0.05872142541662093</v>
+      </c>
+      <c r="H95">
+        <v>0.01513957757924952</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1918183726596022</v>
+        <v>0.2142020968725176</v>
       </c>
       <c r="C98">
-        <v>0.06714007554458137</v>
+        <v>0.04773457530443857</v>
       </c>
       <c r="D98">
-        <v>0.02923849809236853</v>
+        <v>0.02291649419044598</v>
       </c>
       <c r="E98">
-        <v>-0.1861871011027977</v>
+        <v>-0.06107862345321768</v>
       </c>
       <c r="F98">
-        <v>-0.06819563889010039</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2570669136789361</v>
+      </c>
+      <c r="G98">
+        <v>0.04324033362805604</v>
+      </c>
+      <c r="H98">
+        <v>-0.05569912746600894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004240865993327717</v>
+        <v>0.005471515699186328</v>
       </c>
       <c r="C101">
-        <v>-0.005035205868235705</v>
+        <v>0.01944485518660984</v>
       </c>
       <c r="D101">
-        <v>-0.02955101805476074</v>
+        <v>-0.007555849201303266</v>
       </c>
       <c r="E101">
-        <v>-0.1100552947900362</v>
+        <v>-0.0282883835694953</v>
       </c>
       <c r="F101">
-        <v>-0.1744845660669679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.00530038895379046</v>
+      </c>
+      <c r="G101">
+        <v>-0.03948353213582913</v>
+      </c>
+      <c r="H101">
+        <v>0.03874203915661864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.144885801216336</v>
+        <v>0.1186706316719173</v>
       </c>
       <c r="C102">
-        <v>0.01638938928263215</v>
+        <v>0.08125270523358266</v>
       </c>
       <c r="D102">
-        <v>-0.04661160059029916</v>
+        <v>0.00128681517429048</v>
       </c>
       <c r="E102">
-        <v>0.1014443204327288</v>
+        <v>0.0443394605577315</v>
       </c>
       <c r="F102">
-        <v>0.03363078707376683</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06103642208977369</v>
+      </c>
+      <c r="G102">
+        <v>0.01512269179466516</v>
+      </c>
+      <c r="H102">
+        <v>-0.002068970440480808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04039988261532832</v>
+        <v>0.00743381991356328</v>
       </c>
       <c r="C103">
-        <v>-0.01409818592041067</v>
+        <v>0.007604437985115192</v>
       </c>
       <c r="D103">
-        <v>-0.01829854687989802</v>
+        <v>-6.125616834827201e-05</v>
       </c>
       <c r="E103">
-        <v>0.01724242516873019</v>
+        <v>0.001203264957620255</v>
       </c>
       <c r="F103">
-        <v>-0.007395908193059525</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01266922785599884</v>
+      </c>
+      <c r="G103">
+        <v>-0.015633147144427</v>
+      </c>
+      <c r="H103">
+        <v>-0.006787233627294475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.05776522192470941</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.05380970061268091</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9837472256648647</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04626937107971039</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.02736702829363763</v>
+      </c>
+      <c r="G104">
+        <v>-0.02537077402504999</v>
+      </c>
+      <c r="H104">
+        <v>0.1073949618926213</v>
       </c>
     </row>
   </sheetData>
